--- a/statsbyhand.xlsx
+++ b/statsbyhand.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2017-2018" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,11 +18,150 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+  <si>
+    <t>University of Michigan Hockey Statistics</t>
+  </si>
+  <si>
+    <t>Home/Away</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Opponent</t>
+  </si>
+  <si>
+    <t>Win/Loss</t>
+  </si>
+  <si>
+    <t>Shots</t>
+  </si>
+  <si>
+    <t>Goalie</t>
+  </si>
+  <si>
+    <t>Save %</t>
+  </si>
+  <si>
+    <t>Opponent Rank</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2017.10.6</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>St. Lawrence</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>LaFontaine</t>
+  </si>
+  <si>
+    <t>2017.10.7</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Clarkson</t>
+  </si>
+  <si>
+    <t>Kielly</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>2017.10.20</t>
+  </si>
+  <si>
+    <t>Lavigne</t>
+  </si>
+  <si>
+    <t>2017.10.27</t>
+  </si>
+  <si>
+    <t>2017.10.21</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>2017.10.28</t>
+  </si>
+  <si>
+    <t>2017.11.2</t>
+  </si>
+  <si>
+    <t>2017.11.3</t>
+  </si>
+  <si>
+    <t>Ferris State</t>
+  </si>
+  <si>
+    <t>2017.11.10</t>
+  </si>
+  <si>
+    <t>2017.11.11</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>2017.11.17</t>
+  </si>
+  <si>
+    <t>2017.11.18</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,12 +184,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +598,1309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="4" customWidth="1"/>
+    <col min="3" max="9" width="22.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>27</v>
+      </c>
+      <c r="I5" s="9">
+        <v>24</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="13">
+        <f>(I5-G5)/I5</f>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>29</v>
+      </c>
+      <c r="I6" s="9">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="13">
+        <f>(I6-G6)/I6</f>
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45</v>
+      </c>
+      <c r="I7" s="9">
+        <v>16</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" ref="L7:L24" si="0">(I7-G7)/I7</f>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9">
+        <v>3</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>30</v>
+      </c>
+      <c r="I8" s="9">
+        <v>30</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9">
+        <v>35</v>
+      </c>
+      <c r="I9" s="9">
+        <v>54</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.90740740740740744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>30</v>
+      </c>
+      <c r="I10" s="9">
+        <v>44</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.95454545454545459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>51</v>
+      </c>
+      <c r="I11" s="9">
+        <v>30</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9">
+        <v>44</v>
+      </c>
+      <c r="I12" s="9">
+        <v>23</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.86956521739130432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9">
+        <v>4</v>
+      </c>
+      <c r="H13" s="9">
+        <v>33</v>
+      </c>
+      <c r="I13" s="9">
+        <v>31</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.87096774193548387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9">
+        <v>6</v>
+      </c>
+      <c r="G14" s="9">
+        <v>6</v>
+      </c>
+      <c r="H14" s="9">
+        <v>33</v>
+      </c>
+      <c r="I14" s="9">
+        <v>29</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.7931034482758621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="9">
+        <v>9</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9">
+        <v>7</v>
+      </c>
+      <c r="H15" s="9">
+        <v>37</v>
+      </c>
+      <c r="I15" s="9">
+        <v>28</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9">
+        <v>9</v>
+      </c>
+      <c r="F16" s="9">
+        <v>4</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4</v>
+      </c>
+      <c r="H16" s="9">
+        <v>37</v>
+      </c>
+      <c r="I16" s="9">
+        <v>34</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="L17" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="L18" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="L19" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="L20" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="L21" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="L22" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="L23" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="L24" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="5"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="5"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="5"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="5"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="5"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="5"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="5"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="5"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="5"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="5"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="5"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="5"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="5"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="5"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="5"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="5"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="5"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="5"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="5"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="5"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="5"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="5"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="5"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="5"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="5"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="5"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="5"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="5"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="5"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="5"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="5"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="5"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="5"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="5"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="5"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="5"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="5"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="5"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="5"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="5"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="5"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="5"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="5"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="5"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="5"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="5"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="5"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="5"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="5"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="5"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="5"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="5"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="5"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="5"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="5"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="5"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="5"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="5"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="5"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="5"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="5"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="5"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="5"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="5"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="5"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="5"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="5"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="5"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="5"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="5"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="5"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="5"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="5"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="5"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="5"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="5"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="5"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="5"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="5"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="5"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="5"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="5"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="5"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="5"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="5"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="5"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="5"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="5"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="5"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="5"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="5"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="5"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="5"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="5"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="5"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>